--- a/Get_Directions/node/노드 좌표, 근접 노드 정보.xlsx
+++ b/Get_Directions/node/노드 좌표, 근접 노드 정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\20-2\AIM캡스톤디자인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\20-2\AIM캡스톤디자인\깃허브\Get_Directions\node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C81968-8591-452F-B38C-E0A4FB2F53D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344F7D4-7921-4699-8193-CEBDEFE70323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DE2043A-6BFE-40B6-8A20-633B15BC5F85}"/>
+    <workbookView xWindow="13110" yWindow="1125" windowWidth="15120" windowHeight="12330" xr2:uid="{7DE2043A-6BFE-40B6-8A20-633B15BC5F85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>노드 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,13 +75,74 @@
     <t>기준: 좌하단 빨간 점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -211,24 +272,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +317,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,10 +415,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$59</c:f>
+              <c:f>Sheet1!$C$3:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -395,135 +459,132 @@
                   <c:v>2.0653000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5945</c:v>
+                  <c:v>2.6315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7330999999999999</c:v>
+                  <c:v>2.7997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5514999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2.7997999999999998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>0.87890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6466000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1234999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
+                  <c:v>2.2057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7274</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1.8716999999999999</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5514999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="35">
+                  <c:v>2.2498</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.96260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="37">
+                  <c:v>0.51659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7274</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1305000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6046</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1.8716999999999999</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7997999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.87890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.879</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.2057000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7274</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.8716999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.2498</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.51659999999999995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.97740000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.7274</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.51659999999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.63759999999999994</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.85740000000000005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.38679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.81440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.1305000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.6046</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.8716999999999999</c:v>
+                  <c:v>2.1284999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.1284999999999998</c:v>
+                  <c:v>2.4104000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4104000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -531,10 +592,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$59</c:f>
+              <c:f>Sheet1!$D$3:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -578,10 +639,10 @@
                   <c:v>1.7770999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8632</c:v>
+                  <c:v>2.0476999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0261999999999998</c:v>
+                  <c:v>2.7801</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.7801</c:v>
@@ -590,70 +651,70 @@
                   <c:v>2.7801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7801</c:v>
+                  <c:v>2.6478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6478000000000002</c:v>
+                  <c:v>2.2850999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2850999999999999</c:v>
+                  <c:v>3.0528</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0528</c:v>
+                  <c:v>2.8753000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8753000000000002</c:v>
+                  <c:v>3.5638999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.5638999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5638999999999998</c:v>
+                  <c:v>3.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5640000000000001</c:v>
+                  <c:v>3.4832000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4832000000000001</c:v>
+                  <c:v>3.2770999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2770999999999999</c:v>
+                  <c:v>4.0450999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0450999999999997</c:v>
+                  <c:v>4.4819000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>4.4816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.4819000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.4816000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.4819000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4819000000000004</c:v>
+                  <c:v>4.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4820000000000002</c:v>
+                  <c:v>5.2643000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2643000000000004</c:v>
+                  <c:v>5.1132999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1132999999999997</c:v>
+                  <c:v>5.0918000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0918000000000001</c:v>
+                  <c:v>5.3349000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.3349000000000002</c:v>
+                  <c:v>5.5377000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.5377000000000001</c:v>
+                  <c:v>5.7020999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7020999999999997</c:v>
+                  <c:v>5.8242000000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5.8242000000000003</c:v>
@@ -662,48 +723,45 @@
                   <c:v>5.8242000000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.8242000000000003</c:v>
+                  <c:v>6.0915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0915999999999997</c:v>
+                  <c:v>6.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.3040000000000003</c:v>
+                  <c:v>6.3727999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>6.3727999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3727999999999998</c:v>
+                  <c:v>6.8268000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>6.9664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8913000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>6.8268000000000004</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.9664999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.8913000000000002</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.8268000000000004</c:v>
+                  <c:v>6.8052999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.8052999999999999</c:v>
+                  <c:v>6.9128999999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.9128999999999996</c:v>
+                  <c:v>7.0542999999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.0542999999999996</c:v>
+                  <c:v>7.0907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.0907</c:v>
+                  <c:v>7.0327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.0327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>6.8913000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1463,15 +1521,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1797,1815 +1855,1833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6248039C-A800-4BBA-AC7E-7D24184CE64B}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" t="b">
-        <f>D3=COUNT(E3:H3)</f>
-        <v>1</v>
-      </c>
       <c r="J3" t="b">
-        <f>D3=COUNTIF($E$3:$H$59,A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+        <f>E3=COUNT(F3:I3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <f>E3=COUNTIF($F$3:$I$58,B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>0.69799999999999995</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" t="b">
-        <f t="shared" ref="I4:I59" si="0">D4=COUNT(E4:H4)</f>
-        <v>1</v>
-      </c>
       <c r="J4" t="b">
-        <f t="shared" ref="J4:J59" si="1">D4=COUNTIF($E$3:$H$59,A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <f t="shared" ref="J4:J58" si="0">E4=COUNT(F4:I4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <f>E4=COUNTIF($F$3:$I$58,B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="1">
         <v>2.044</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <f>E5=COUNTIF($F$3:$I$58,B5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="1">
         <v>2.8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="I6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <f>E6=COUNTIF($F$3:$I$58,B6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="1">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="1">
         <v>0.91069999999999995</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="I7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <f>E7=COUNTIF($F$3:$I$58,B7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="1">
         <v>1.1908000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="1">
         <v>0.91100000000000003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="I8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <f>E8=COUNTIF($F$3:$I$58,B8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="9"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="1">
         <v>2.0438000000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="1">
         <v>0.91100000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J9" t="b">
-        <f>D9=COUNTIF($E$3:$H$59,A9)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <f>E9=COUNTIF($F$3:$I$58,B9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="9"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="1">
         <v>1.2349000000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <f>E10=COUNTIF($F$3:$I$58,B10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="1">
         <v>0.94350000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="1">
         <v>1.5782</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="I11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J11" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <f>E11=COUNTIF($F$3:$I$58,B11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="1">
         <v>2.0438000000000001</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="1">
         <v>1.4399</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13</v>
       </c>
-      <c r="I12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <f>E12=COUNTIF($F$3:$I$58,B12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="1">
         <v>1.988</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>17</v>
       </c>
-      <c r="I13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J13" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <f>E13=COUNTIF($F$3:$I$58,B13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="1">
         <v>0.90049999999999997</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="1">
         <v>1.988</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>18</v>
       </c>
-      <c r="I14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J14" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <f>E14=COUNTIF($F$3:$I$58,B14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="1">
         <v>2.0653000000000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="1">
         <v>1.7775000000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>21</v>
       </c>
-      <c r="I15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J15" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <f>E15=COUNTIF($F$3:$I$58,B15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>2.5945</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
+        <v>2.6315</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.7770999999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>13</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G16">
+        <v>16</v>
       </c>
       <c r="J16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.7330999999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.8632</v>
-      </c>
-      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <f>E16=COUNTIF($F$3:$I$58,B16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.7997999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0476999999999999</v>
+      </c>
+      <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>14</v>
       </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="I17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G17">
+        <v>28</v>
       </c>
       <c r="J17" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.7997999999999998</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.0261999999999998</v>
-      </c>
-      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <f>E17=COUNTIF($F$3:$I$58,B17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.7801</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f>E18=COUNTIF($F$3:$I$58,B18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.7801</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f>E19=COUNTIF($F$3:$I$58,B19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.7801</v>
+      </c>
+      <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>28</v>
-      </c>
-      <c r="I18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.7801</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f>E20=COUNTIF($F$3:$I$58,B20)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.6478000000000002</v>
+      </c>
+      <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>24</v>
-      </c>
-      <c r="I19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.7801</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="H20">
-        <v>25</v>
-      </c>
-      <c r="I20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.7801</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f>E21=COUNTIF($F$3:$I$58,B21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.1234999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.2850999999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
         <v>20</v>
       </c>
-      <c r="I21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.6466000000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.6478000000000002</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>23</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f>E22=COUNTIF($F$3:$I$58,B22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="I22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2.1234999999999999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2.2850999999999999</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
+      <c r="C23" s="1">
+        <v>1.8716999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0528</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
-      <c r="G23">
+      <c r="J23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f>E23=COUNTIF($F$3:$I$58,B23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="I23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C24" s="1">
+        <v>2.5514999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.8753000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>28</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f>E24=COUNTIF($F$3:$I$58,B24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.5638999999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f>E25=COUNTIF($F$3:$I$58,B25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.5638999999999998</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f>E26=COUNTIF($F$3:$I$58,B26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
         <v>1.8716999999999999</v>
       </c>
-      <c r="C24" s="2">
-        <v>3.0528</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="I24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="D27" s="1">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f>E27=COUNTIF($F$3:$I$58,B27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.4832000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f>E28=COUNTIF($F$3:$I$58,B28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.7997999999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.2770999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>2.5514999999999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.8753000000000002</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>34</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <f>E29=COUNTIF($F$3:$I$58,B29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>21</v>
-      </c>
-      <c r="F25">
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>31</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <f>E30=COUNTIF($F$3:$I$58,B30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.4819000000000004</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <v>38</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <f>E31=COUNTIF($F$3:$I$58,B31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.4816000000000003</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <f>E32=COUNTIF($F$3:$I$58,B32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.4819000000000004</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <f>E33=COUNTIF($F$3:$I$58,B33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.2057000000000002</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.4819000000000004</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="J34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <f>E34=COUNTIF($F$3:$I$58,B34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>28</v>
       </c>
-      <c r="I25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>43</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <f>E35=COUNTIF($F$3:$I$58,B35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.7274</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5.2643000000000004</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <f>E36=COUNTIF($F$3:$I$58,B36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.8716999999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.1132999999999997</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <f>E37=COUNTIF($F$3:$I$58,B37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.2498</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0918000000000001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <f>E38=COUNTIF($F$3:$I$58,B38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <v>3.5638999999999998</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="D39" s="1">
+        <v>5.3349000000000002</v>
+      </c>
+      <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="E26">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26">
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="I26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3.5638999999999998</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>29</v>
-      </c>
-      <c r="I27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="G39">
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <f>E39=COUNTIF($F$3:$I$58,B39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.5377000000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>44</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <f>E40=COUNTIF($F$3:$I$58,B40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.7020999999999997</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <f>E41=COUNTIF($F$3:$I$58,B41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.8242000000000003</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42">
+        <v>47</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <f>E42=COUNTIF($F$3:$I$58,B42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.7274</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.8242000000000003</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <f>E43=COUNTIF($F$3:$I$58,B43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5.8242000000000003</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <v>57</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <f>E44=COUNTIF($F$3:$I$58,B44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6.0915999999999997</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>39</v>
+      </c>
+      <c r="G45">
+        <v>45</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <f>E45=COUNTIF($F$3:$I$58,B45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6.3040000000000003</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>46</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <f>E46=COUNTIF($F$3:$I$58,B46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6.3727999999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>47</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <f>E47=COUNTIF($F$3:$I$58,B47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.3727999999999998</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>41</v>
+      </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <v>52</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <f>E48=COUNTIF($F$3:$I$58,B48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.8268000000000004</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>38</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <f>E49=COUNTIF($F$3:$I$58,B49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6.9664999999999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="J50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <f>E50=COUNTIF($F$3:$I$58,B50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6.8913000000000002</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>51</v>
+      </c>
+      <c r="J51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <f>E51=COUNTIF($F$3:$I$58,B51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.1305000000000001</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6.8268000000000004</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>52</v>
+      </c>
+      <c r="J52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <f>E52=COUNTIF($F$3:$I$58,B52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6.8052999999999999</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>47</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="J53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <f>E53=COUNTIF($F$3:$I$58,B53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.6046</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.9128999999999996</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <v>54</v>
+      </c>
+      <c r="J54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <f>E54=COUNTIF($F$3:$I$58,B54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
         <v>1.8716999999999999</v>
       </c>
-      <c r="C28" s="2">
-        <v>3.5640000000000001</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="G28">
-        <v>33</v>
-      </c>
-      <c r="I28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3.4832000000000001</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="D55" s="1">
+        <v>7.0542999999999996</v>
+      </c>
+      <c r="E55" s="2">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="I29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2.7997999999999998</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3.2770999999999999</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>23</v>
-      </c>
-      <c r="G30">
-        <v>27</v>
-      </c>
-      <c r="H30">
-        <v>34</v>
-      </c>
-      <c r="I30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4.0450999999999997</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55">
+        <v>55</v>
+      </c>
+      <c r="J55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <f>E55=COUNTIF($F$3:$I$58,B55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.1284999999999998</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.0907</v>
+      </c>
+      <c r="E56" s="2">
         <v>2</v>
       </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-      <c r="F31">
-        <v>31</v>
-      </c>
-      <c r="I31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J31" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4.4819000000000004</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>24</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-      <c r="G32">
-        <v>38</v>
-      </c>
-      <c r="I32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.879</v>
-      </c>
-      <c r="C33" s="2">
-        <v>4.4816000000000003</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>29</v>
-      </c>
-      <c r="G33">
-        <v>32</v>
-      </c>
-      <c r="I33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J33" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4.4819000000000004</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>31</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-      <c r="G34">
-        <v>40</v>
-      </c>
-      <c r="I34" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J34" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2.2057000000000002</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4.4819000000000004</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>26</v>
-      </c>
-      <c r="F35">
-        <v>32</v>
-      </c>
-      <c r="G35">
-        <v>34</v>
-      </c>
-      <c r="I35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="F56">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>56</v>
+      </c>
+      <c r="J56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <f>E56=COUNTIF($F$3:$I$58,B56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.4104000000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7.0327999999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>57</v>
+      </c>
+      <c r="J57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <f>E57=COUNTIF($F$3:$I$58,B57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
         <v>2.8</v>
       </c>
-      <c r="C36" s="2">
-        <v>4.4820000000000002</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>28</v>
-      </c>
-      <c r="F36">
-        <v>33</v>
-      </c>
-      <c r="G36">
+      <c r="D58" s="1">
+        <v>6.8913000000000002</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>43</v>
       </c>
-      <c r="I36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1.7274</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5.2643000000000004</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>42</v>
-      </c>
-      <c r="I37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J37" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.8716999999999999</v>
-      </c>
-      <c r="C38" s="2">
-        <v>5.1132999999999997</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>35</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-      <c r="I38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2.2498</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5.0918000000000001</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>36</v>
-      </c>
-      <c r="I39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5.3349000000000002</v>
-      </c>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-      <c r="G40">
-        <v>48</v>
-      </c>
-      <c r="I40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5.5377000000000001</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>38</v>
-      </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
-      <c r="G41">
-        <v>44</v>
-      </c>
-      <c r="I41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J41" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.97740000000000005</v>
-      </c>
-      <c r="C42" s="2">
-        <v>5.7020999999999997</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>32</v>
-      </c>
-      <c r="F42">
-        <v>39</v>
-      </c>
-      <c r="G42">
-        <v>41</v>
-      </c>
-      <c r="I42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5.8242000000000003</v>
-      </c>
-      <c r="D43" s="4">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>40</v>
-      </c>
-      <c r="F43">
-        <v>42</v>
-      </c>
-      <c r="G43">
-        <v>47</v>
-      </c>
-      <c r="I43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.7274</v>
-      </c>
-      <c r="C44" s="2">
-        <v>5.8242000000000003</v>
-      </c>
-      <c r="D44" s="4">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>35</v>
-      </c>
-      <c r="F44">
-        <v>41</v>
-      </c>
-      <c r="G44">
-        <v>43</v>
-      </c>
-      <c r="I44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C45" s="2">
-        <v>5.8242000000000003</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>34</v>
-      </c>
-      <c r="F45">
-        <v>42</v>
-      </c>
-      <c r="G45">
-        <v>57</v>
-      </c>
-      <c r="I45" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6.0915999999999997</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>39</v>
-      </c>
-      <c r="F46">
-        <v>45</v>
-      </c>
-      <c r="I46" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J46" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.63759999999999994</v>
-      </c>
-      <c r="C47" s="2">
-        <v>6.3040000000000003</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>44</v>
-      </c>
-      <c r="F47">
-        <v>46</v>
-      </c>
-      <c r="I47" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J47" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.85740000000000005</v>
-      </c>
-      <c r="C48" s="2">
-        <v>6.3727999999999998</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>45</v>
-      </c>
-      <c r="F48">
-        <v>47</v>
-      </c>
-      <c r="I48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J48" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C49" s="2">
-        <v>6.3727999999999998</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>41</v>
-      </c>
-      <c r="F49">
-        <v>46</v>
-      </c>
-      <c r="G49">
-        <v>52</v>
-      </c>
-      <c r="I49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J49" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2">
-        <v>6.8268000000000004</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>38</v>
-      </c>
-      <c r="F50">
-        <v>49</v>
-      </c>
-      <c r="I50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J50" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.38679999999999998</v>
-      </c>
-      <c r="C51" s="2">
-        <v>6.9664999999999999</v>
-      </c>
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>48</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-      <c r="I51" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="C52" s="2">
-        <v>6.8913000000000002</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>49</v>
-      </c>
-      <c r="F52">
-        <v>51</v>
-      </c>
-      <c r="I52" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J52" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.1305000000000001</v>
-      </c>
-      <c r="C53" s="2">
-        <v>6.8268000000000004</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>50</v>
-      </c>
-      <c r="F53">
-        <v>52</v>
-      </c>
-      <c r="I53" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J53" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C54" s="2">
-        <v>6.8052999999999999</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>47</v>
-      </c>
-      <c r="F54">
-        <v>51</v>
-      </c>
-      <c r="G54">
-        <v>53</v>
-      </c>
-      <c r="I54" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J54" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.6046</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6.9128999999999996</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>52</v>
-      </c>
-      <c r="F55">
-        <v>54</v>
-      </c>
-      <c r="I55" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J55" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.8716999999999999</v>
-      </c>
-      <c r="C56" s="2">
-        <v>7.0542999999999996</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>53</v>
-      </c>
-      <c r="F56">
-        <v>55</v>
-      </c>
-      <c r="I56" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J56" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2.1284999999999998</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7.0907</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>54</v>
-      </c>
-      <c r="F57">
+      <c r="G58">
         <v>56</v>
       </c>
-      <c r="I57" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2.4104000000000001</v>
-      </c>
-      <c r="C58" s="2">
-        <v>7.0327999999999999</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>55</v>
-      </c>
-      <c r="F58">
-        <v>57</v>
-      </c>
-      <c r="I58" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="J58" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C59" s="2">
-        <v>6.8913000000000002</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>43</v>
-      </c>
-      <c r="F59">
-        <v>56</v>
-      </c>
-      <c r="I59" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="4"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <f>E58=COUNTIF($F$3:$I$58,B58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L5:O10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M5:P10"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
